--- a/data/2.design_groupsKIJAK2vsGFP_Mus-musculus.xlsx
+++ b/data/2.design_groupsKIJAK2vsGFP_Mus-musculus.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="2.ASTRO_design_groupsKIJAK2vsGFP_March" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="2.design_groupsKIJAK2vsGFP_Mus-musculus" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,47 +20,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
     <t xml:space="preserve">AAV</t>
   </si>
   <si>
-    <t xml:space="preserve">StateAAV</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Cells</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mouse</t>
   </si>
   <si>
     <t xml:space="preserve">Astro_KIGFP_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Astro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KI</t>
-  </si>
-  <si>
     <t xml:space="preserve">GFP</t>
   </si>
   <si>
-    <t xml:space="preserve">KIGFP</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -77,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">JAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIJAK</t>
   </si>
   <si>
     <t xml:space="preserve">Astro_KIJAK_7</t>
@@ -206,21 +182,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="5.66836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.99489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.39795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -236,302 +209,158 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>3740</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>3089</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>1288</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1380</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>4560</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>2088</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>3322</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>2130</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>754</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <v>4259</v>
-      </c>
-      <c r="H11" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>1209</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>15</v>
       </c>
     </row>
